--- a/legendre_out/CSV/analytically/p1/a0/rates.xlsx
+++ b/legendre_out/CSV/analytically/p1/a0/rates.xlsx
@@ -562,7 +562,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>3.762971928127313e-283</v>
+        <v>5.782106098326781e-283</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +570,7 @@
         <v>0.08</v>
       </c>
       <c r="B26" t="n">
-        <v>3.25156360181815e-247</v>
+        <v>5.034772039521405e-247</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +578,7 @@
         <v>0.09</v>
       </c>
       <c r="B27" t="n">
-        <v>2.934838343813515e-219</v>
+        <v>4.561318327865142e-219</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +586,7 @@
         <v>0.1</v>
       </c>
       <c r="B28" t="n">
-        <v>6.8270931274125e-197</v>
+        <v>1.062086194387558e-196</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +594,7 @@
         <v>0.11</v>
       </c>
       <c r="B29" t="n">
-        <v>1.363869028483176e-178</v>
+        <v>2.120026184049017e-178</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +602,7 @@
         <v>0.12</v>
       </c>
       <c r="B30" t="n">
-        <v>2.425198472762459e-163</v>
+        <v>3.76261629796324e-163</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +610,7 @@
         <v>0.13</v>
       </c>
       <c r="B31" t="n">
-        <v>1.938794639143245e-150</v>
+        <v>3.000389662113383e-150</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +618,7 @@
         <v>0.14</v>
       </c>
       <c r="B32" t="n">
-        <v>2.216832303329179e-139</v>
+        <v>3.420886201488311e-139</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +626,7 @@
         <v>0.15</v>
       </c>
       <c r="B33" t="n">
-        <v>8.473350966575657e-130</v>
+        <v>1.303640679805073e-129</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +634,7 @@
         <v>0.16</v>
       </c>
       <c r="B34" t="n">
-        <v>2.046950802468082e-121</v>
+        <v>3.139741422000078e-121</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +642,7 @@
         <v>0.18</v>
       </c>
       <c r="B35" t="n">
-        <v>1.899829136779569e-107</v>
+        <v>2.896935007312555e-107</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +650,7 @@
         <v>0.2</v>
       </c>
       <c r="B36" t="n">
-        <v>2.803857721214719e-96</v>
+        <v>4.252027232052202e-96</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +658,7 @@
         <v>0.25</v>
       </c>
       <c r="B37" t="n">
-        <v>3.428031455208221e-76</v>
+        <v>5.13840749961484e-76</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +666,7 @@
         <v>0.3</v>
       </c>
       <c r="B38" t="n">
-        <v>8.096080023970279e-63</v>
+        <v>1.202457439357156e-62</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +674,7 @@
         <v>0.35</v>
       </c>
       <c r="B39" t="n">
-        <v>2.801062356665008e-53</v>
+        <v>4.128188085542942e-53</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +682,7 @@
         <v>0.4</v>
       </c>
       <c r="B40" t="n">
-        <v>3.91149065724573e-46</v>
+        <v>5.72274130562382e-46</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +690,7 @@
         <v>0.45</v>
       </c>
       <c r="B41" t="n">
-        <v>1.39174189672344e-40</v>
+        <v>2.020403793861964e-40</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +698,7 @@
         <v>0.5</v>
       </c>
       <c r="B42" t="n">
-        <v>3.811718109952184e-36</v>
+        <v>5.484296304515346e-36</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +706,7 @@
         <v>0.6</v>
       </c>
       <c r="B43" t="n">
-        <v>1.71760501142563e-29</v>
+        <v>2.416295423957526e-29</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +714,7 @@
         <v>0.7</v>
       </c>
       <c r="B44" t="n">
-        <v>9.795729846332742e-25</v>
+        <v>1.339780853598702e-24</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +722,7 @@
         <v>0.8</v>
       </c>
       <c r="B45" t="n">
-        <v>3.672044418498729e-21</v>
+        <v>4.867219595409677e-21</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +730,7 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>2.251047427307229e-18</v>
+        <v>2.889287724471346e-18</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>3.898596705408384e-16</v>
+        <v>4.848632551168399e-16</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +746,7 @@
         <v>1.25</v>
       </c>
       <c r="B48" t="n">
-        <v>4.587480635921548e-12</v>
+        <v>5.306287186735144e-12</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +754,7 @@
         <v>1.5</v>
       </c>
       <c r="B49" t="n">
-        <v>2.744975818344509e-09</v>
+        <v>2.995915820961697e-09</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +762,7 @@
         <v>1.75</v>
       </c>
       <c r="B50" t="n">
-        <v>2.968757393617099e-07</v>
+        <v>3.11520901465351e-07</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>1.063969371933649e-05</v>
+        <v>1.090325038088596e-05</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +778,7 @@
         <v>2.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.001703914970281234</v>
+        <v>0.001708091055838428</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05075797300740114</v>
+        <v>0.05045762577548502</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +794,7 @@
         <v>3.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5652567370482487</v>
+        <v>0.5597833138309447</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="n">
-        <v>3.386139659264217</v>
+        <v>3.346682025325576</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>123.9139112898761</v>
+        <v>122.158902380922</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>557.5651773479123</v>
+        <v>551.5923573884486</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>1675.772319720549</v>
+        <v>1656.275928820051</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>3724.133423088411</v>
+        <v>3681.026669669826</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="n">
-        <v>6802.060636731146</v>
+        <v>6731.403634182272</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>10860.62481232075</v>
+        <v>10733.94424663136</v>
       </c>
     </row>
   </sheetData>
